--- a/public/TemplateImport/template_import_thesis.xlsx
+++ b/public/TemplateImport/template_import_thesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3329E-2A62-43C3-B460-E178B9BAF0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF6AED9-B3D0-45D1-857D-85AE3E5E8D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
@@ -36,40 +36,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ABC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>DEF</t>
   </si>
   <si>
-    <t>Mã chuyên ngành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên Chuyên ngành </t>
-  </si>
-  <si>
-    <t>Mã Khoa</t>
-  </si>
-  <si>
-    <t>FacultyId</t>
-  </si>
-  <si>
-    <t>majorName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> majorId</t>
-  </si>
-  <si>
-    <t>DCT</t>
+    <t>Mã đề tài khoá luận</t>
+  </si>
+  <si>
+    <t>Tên đề tài khoá luận</t>
+  </si>
+  <si>
+    <t>Tên nhóm đề tài khoá luận</t>
+  </si>
+  <si>
+    <t>Chủ nhiệm đề tài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số lượng thành viên </t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>ĐỀ TÀI KHOÁ LUẬN</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Sang</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>20-11-2024</t>
+  </si>
+  <si>
+    <t>25-11-2024</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>DCTTHESIS005</t>
+  </si>
+  <si>
+    <t>Nhóm đề tài khoá luận 002</t>
+  </si>
+  <si>
+    <t>Đang mở</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +116,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="111"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +181,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,55 +526,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DBA273-47A2-4126-A988-E125690B883F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/TemplateImport/template_import_thesis.xlsx
+++ b/public/TemplateImport/template_import_thesis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\learning-app\public\TemplateImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF6AED9-B3D0-45D1-857D-85AE3E5E8D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C62833-EA00-42E0-82BF-2BB25FBC8C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DEF</t>
   </si>
   <si>
-    <t>Mã đề tài khoá luận</t>
-  </si>
-  <si>
     <t>Tên đề tài khoá luận</t>
   </si>
   <si>
-    <t>Tên nhóm đề tài khoá luận</t>
-  </si>
-  <si>
     <t>Chủ nhiệm đề tài</t>
   </si>
   <si>
@@ -65,31 +59,49 @@
     <t>Ngày kết thúc</t>
   </si>
   <si>
-    <t>ĐỀ TÀI KHOÁ LUẬN</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Sang</t>
   </si>
   <si>
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>20-11-2024</t>
-  </si>
-  <si>
-    <t>25-11-2024</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
-    <t>DCTTHESIS005</t>
-  </si>
-  <si>
-    <t>Nhóm đề tài khoá luận 002</t>
-  </si>
-  <si>
-    <t>Đang mở</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>numberOfMember</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>instructorName</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>finishDate</t>
+  </si>
+  <si>
+    <t>IMPORT ĐỀ TÀI KHÓA LUẬN</t>
+  </si>
+  <si>
+    <t>thesisName</t>
+  </si>
+  <si>
+    <t>Mã nhóm đề tài khoá luận</t>
+  </si>
+  <si>
+    <t>thesisGroupId</t>
+  </si>
+  <si>
+    <t>DCTTS001</t>
+  </si>
+  <si>
+    <t>011</t>
   </si>
 </sst>
 </file>
@@ -107,14 +119,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -122,16 +126,21 @@
     </font>
     <font>
       <b/>
-      <sz val="111"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,46 +163,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,221 +543,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DBA273-47A2-4126-A988-E125690B883F}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="46.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="23.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G4" s="8">
+        <v>44117.333333333336</v>
+      </c>
+      <c r="H4" s="8">
+        <v>44185.333333333336</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
